--- a/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
+++ b/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>作業工程表　未完:□　完了:■</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>登録・更新画面作成</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>セッション管理・入力チェック</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -395,19 +401,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -420,15 +413,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,32 +429,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
@@ -476,7 +443,39 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -488,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +536,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -546,59 +551,59 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="A1:L35"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,10 +902,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -1024,11 +1029,11 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1072,7 +1077,9 @@
       <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="11">
+        <v>0.4</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1094,7 +1101,9 @@
       <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="11">
+        <v>0.4</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1116,7 +1125,9 @@
       <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="11">
+        <v>0.4</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1132,11 +1143,11 @@
       <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1199,19 +1210,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1223,12 +1234,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="11">
+        <v>0.1</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1244,34 +1257,36 @@
       <c r="A16" s="13">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="29">
+        <v>0.1</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="K16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1284,14 +1299,14 @@
       <c r="A18" s="13">
         <v>14</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="35">
-        <v>0.1</v>
+      <c r="D18" s="16">
+        <v>0.7</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1314,7 +1329,7 @@
       <c r="C19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="16">
         <v>0.1</v>
       </c>
       <c r="E19" s="3"/>
@@ -1338,7 +1353,9 @@
       <c r="C20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="17">
+        <v>0.1</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1354,11 +1371,11 @@
       <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1378,7 +1395,9 @@
       <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1400,7 +1419,9 @@
       <c r="C23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1422,7 +1443,9 @@
       <c r="C24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1438,11 +1461,11 @@
       <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1462,8 +1485,8 @@
       <c r="C26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="36">
-        <v>0.7</v>
+      <c r="D26" s="16">
+        <v>0.85</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1486,8 +1509,8 @@
       <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="36">
-        <v>0.8</v>
+      <c r="D27" s="16">
+        <v>0.85</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1510,7 +1533,9 @@
       <c r="C28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="16">
+        <v>0.85</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1532,7 +1557,9 @@
       <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="17">
+        <v>0.4</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1548,11 +1575,11 @@
       <c r="A30" s="13">
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1572,23 +1599,29 @@
       <c r="C31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>28</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1602,9 +1635,15 @@
       <c r="A33" s="13">
         <v>29</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1612,15 +1651,23 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>30</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1628,15 +1675,23 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>31</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1644,21 +1699,48 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>32</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
+++ b/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t>作業工程表　未完:□　完了:■</t>
   </si>
@@ -268,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -451,43 +451,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,8 +509,14 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -551,6 +527,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -563,21 +545,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -587,23 +554,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +840,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,10 +854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -922,22 +874,22 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1029,11 +981,11 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1054,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1078,13 +1030,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1102,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="11">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1126,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1134,7 +1086,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1143,11 +1095,11 @@
       <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1240,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="11">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1257,14 +1209,14 @@
       <c r="A16" s="13">
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="29">
-        <v>0.1</v>
+      <c r="D16" s="19">
+        <v>0.7</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,11 +1233,11 @@
       <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1306,14 +1258,12 @@
         <v>27</v>
       </c>
       <c r="D18" s="16">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1330,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1353,8 +1303,8 @@
       <c r="C20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="17">
-        <v>0.1</v>
+      <c r="D20" s="16">
+        <v>1</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1371,11 +1321,11 @@
       <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1395,9 +1345,7 @@
       <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
+      <c r="D22" s="14"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1419,9 +1367,7 @@
       <c r="C23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
+      <c r="D23" s="14"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1443,9 +1389,7 @@
       <c r="C24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
+      <c r="D24" s="14"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1461,11 +1405,11 @@
       <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1486,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="16">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1510,7 +1454,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="16">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1534,7 +1478,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="16">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1557,8 +1501,8 @@
       <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="17">
-        <v>0.4</v>
+      <c r="D29" s="16">
+        <v>0.6</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1575,11 +1519,11 @@
       <c r="A30" s="13">
         <v>26</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1599,9 +1543,7 @@
       <c r="C31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
+      <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1617,11 +1559,11 @@
       <c r="A32" s="13">
         <v>28</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1641,9 +1583,7 @@
       <c r="C33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
+      <c r="D33" s="14"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1665,9 +1605,7 @@
       <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
+      <c r="D34" s="14"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1689,9 +1627,7 @@
       <c r="C35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="17">
-        <v>0</v>
-      </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1704,31 +1640,34 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="13">
         <v>32</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="38">
-        <v>0</v>
-      </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="12" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B6:D6"/>
@@ -1736,11 +1675,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
+++ b/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
@@ -518,6 +518,30 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -532,30 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +840,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,10 +854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -874,22 +874,22 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -981,11 +981,11 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1006,13 +1006,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1054,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1095,11 +1095,11 @@
       <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1200,7 +1200,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1224,7 +1224,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="L16" s="12"/>
@@ -1233,11 +1233,11 @@
       <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1258,12 +1258,12 @@
         <v>27</v>
       </c>
       <c r="D18" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1321,11 +1321,11 @@
       <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1345,7 +1345,9 @@
       <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="16">
+        <v>0.1</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1367,7 +1369,9 @@
       <c r="C23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="16">
+        <v>0.1</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1389,7 +1393,9 @@
       <c r="C24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="16">
+        <v>0.1</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1405,11 +1411,11 @@
       <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1519,11 +1525,11 @@
       <c r="A30" s="13">
         <v>26</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1559,11 +1565,11 @@
       <c r="A32" s="13">
         <v>28</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1581,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="3"/>
@@ -1625,7 +1631,7 @@
         <v>47</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="3"/>
@@ -1647,7 +1653,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="3"/>
@@ -1663,11 +1669,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B6:D6"/>
@@ -1675,6 +1676,11 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
+++ b/cherry/web_crud_sample/doc/Cherry_作業工程表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>作業工程表　未完:□　完了:■</t>
   </si>
@@ -268,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -399,65 +399,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,18 +457,6 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -532,15 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -840,7 +767,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,10 +781,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -874,22 +801,22 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -981,11 +908,11 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1054,14 +981,14 @@
         <v>17</v>
       </c>
       <c r="D9" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="3"/>
@@ -1095,11 +1022,11 @@
       <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1192,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1209,14 +1136,14 @@
       <c r="A16" s="13">
         <v>12</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="19">
-        <v>0.7</v>
+      <c r="D16" s="11">
+        <v>1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1225,7 +1152,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -1233,11 +1160,11 @@
       <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1263,8 +1190,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1311,7 +1240,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1321,11 +1250,11 @@
       <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1346,7 +1275,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1370,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1394,7 +1323,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1411,11 +1340,11 @@
       <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1508,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="16">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1525,11 +1454,11 @@
       <c r="A30" s="13">
         <v>26</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1549,7 +1478,9 @@
       <c r="C31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="11">
+        <v>0.8</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1565,11 +1496,11 @@
       <c r="A32" s="13">
         <v>28</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1589,7 +1520,9 @@
       <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1611,7 +1544,9 @@
       <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1633,7 +1568,9 @@
       <c r="C35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1655,7 +1592,9 @@
       <c r="C36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
